--- a/ProbEstat_aula01.xlsx
+++ b/ProbEstat_aula01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\probability-and-statistics-II-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DEF340-40B3-4C69-997A-1AEAEF83564B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D01F513-042B-4537-9D6D-01CB46C6940D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{3B1C6D06-7312-410D-B6AB-9BE9393A1C8F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{3B1C6D06-7312-410D-B6AB-9BE9393A1C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex. 1.1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>Salário anual (US$)</t>
   </si>
@@ -617,13 +617,34 @@
   </si>
   <si>
     <t>(Área branca)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = </t>
+  </si>
+  <si>
+    <t>σ [J] =</t>
+  </si>
+  <si>
+    <t>α =</t>
+  </si>
+  <si>
+    <t>s [J] =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x̅ [J] = </t>
+  </si>
+  <si>
+    <t>μ1</t>
+  </si>
+  <si>
+    <t>μ2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +685,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -789,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,6 +850,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,23 +872,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,6 +1151,54 @@
         <a:xfrm>
           <a:off x="7896225" y="1666875"/>
           <a:ext cx="1519777" cy="850211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62167</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E78295A-72E0-42BB-9020-70185A523597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="25113" t="54586" r="60003" b="31185"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362199" y="3419475"/>
+          <a:ext cx="3595943" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,28 +1521,28 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1785,28 +1863,28 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
@@ -1816,14 +1894,14 @@
         <f>(95-100)/(10/SQRT(25))</f>
         <v>-2.5</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C4" t="s">
@@ -1848,7 +1926,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L14" s="23"/>
+      <c r="L14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1865,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8018C37-8ED3-4D14-8D76-1AC3D61C03A6}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,21 +1954,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E3" t="s">
@@ -1900,14 +1978,14 @@
         <f>31.5-1</f>
         <v>30.5</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="23"/>
       <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="13">
         <f>_xlfn.NORM.S.DIST(H5,1)</f>
         <v>0.72215510485860279</v>
       </c>
@@ -1916,10 +1994,10 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F4">
@@ -1980,7 +2058,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L13" s="23"/>
+      <c r="L13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1995,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D769D06-2FEF-44F4-AC57-1EE30F834461}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,17 +2085,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
@@ -2054,16 +2132,88 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>AVERAGE(B4:F5)</f>
+        <v>64.45999999999998</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.STDEV.S(B4:F5)</f>
+        <v>0.22705848487901883</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>64.459999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> _xlfn.NORM.S.INV(1-0.5/2)</f>
+        <v>0.67448975019608193</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11">
+        <f>C9-I10* C12/SQRT(C11)</f>
+        <v>64.24670761309423</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <f>C9+I10* C12/SQRT(C11)</f>
+        <v>64.673292386905757</v>
+      </c>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2071,6 +2221,8 @@
     <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2088,15 +2240,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="157.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
